--- a/dados_perfuracao.xlsx
+++ b/dados_perfuracao.xlsx
@@ -1,35 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/hygor_vinicius_petrobras_com_br/Documents/Documentos/GitHub/Trabalho_AEPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_F25DC773A252ABDACC104873415D5E145ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C78C8588-E192-4752-BA03-76094F9F99A6}"/>
+  <xr:revisionPtr revIDLastSave="640" documentId="11_F25DC773A252ABDACC104873415D5E145ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C14493F-E3D2-4B3E-9E22-C17D9DA6E82C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
+    <sheet name="Tempo de Construção do Poço" sheetId="6" r:id="rId2"/>
+    <sheet name="Produtores" sheetId="3" r:id="rId3"/>
+    <sheet name="Injetores" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
   <si>
     <t>Poço</t>
   </si>
   <si>
+    <t>Seq</t>
+  </si>
+  <si>
+    <t>Comprimento + LDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modelo CAP - BASE (dias)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modelo CAP - Down (dias)</t>
+  </si>
+  <si>
+    <t>1º Óleo - Down</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modelo CAP - Up (dias)</t>
+  </si>
+  <si>
+    <t>1º Óleo - Up</t>
+  </si>
+  <si>
     <t>P1</t>
   </si>
   <si>
@@ -57,14 +92,253 @@
     <t>P5</t>
   </si>
   <si>
-    <t>Comprimento</t>
+    <t>I5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>I6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>I7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>I8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>I9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>I10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>I11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
+  <si>
+    <t>I12</t>
+  </si>
+  <si>
+    <t>P13</t>
+  </si>
+  <si>
+    <t>I13</t>
+  </si>
+  <si>
+    <t>P14</t>
+  </si>
+  <si>
+    <t>I14</t>
+  </si>
+  <si>
+    <t>P15</t>
+  </si>
+  <si>
+    <t>Entradas (Profundidades em Measured Depth):</t>
+  </si>
+  <si>
+    <t>Custo de broca:</t>
+  </si>
+  <si>
+    <t>LDA + Air Gap:</t>
+  </si>
+  <si>
+    <t>Diâmetro (Bit Size)</t>
+  </si>
+  <si>
+    <t>Valor Unitário</t>
+  </si>
+  <si>
+    <t>Numero de Brocas</t>
+  </si>
+  <si>
+    <t>Valor Total</t>
+  </si>
+  <si>
+    <t>Profundidade CSG-20in:</t>
+  </si>
+  <si>
+    <t>26in</t>
+  </si>
+  <si>
+    <t>Profundidade CSG-13.375in:</t>
+  </si>
+  <si>
+    <t>17.5in</t>
+  </si>
+  <si>
+    <t>Profundidade CSG-9.625in:</t>
+  </si>
+  <si>
+    <t>12.25in</t>
+  </si>
+  <si>
+    <t>Profundidade CSG-7in:</t>
+  </si>
+  <si>
+    <t>8.5in</t>
+  </si>
+  <si>
+    <t>Cb</t>
+  </si>
+  <si>
+    <t>Cr (diária de sonda, página 28):</t>
+  </si>
+  <si>
+    <t>Tempo de Broca em atividade (em horas)</t>
+  </si>
+  <si>
+    <t>Custo total da sonda</t>
+  </si>
+  <si>
+    <t>Tempo de Broca em atividade (em dias)</t>
+  </si>
+  <si>
+    <t>Cf (custo por metro perfurado)</t>
+  </si>
+  <si>
+    <t>Tempo de circulação (Broca parada)</t>
+  </si>
+  <si>
+    <t>Numero de manobras (numero de brocas -1):</t>
+  </si>
+  <si>
+    <t>tc (em horas):</t>
+  </si>
+  <si>
+    <t>tc (em dias):</t>
+  </si>
+  <si>
+    <t>Tempo de Manobra</t>
+  </si>
+  <si>
+    <t>Manobra em 26in (2x)</t>
+  </si>
+  <si>
+    <t>Manobra em 17.5in (2x)</t>
+  </si>
+  <si>
+    <t>Manobra em 12.25in (6x)</t>
+  </si>
+  <si>
+    <t>Manobra em 8.5in (5x)</t>
+  </si>
+  <si>
+    <t>tt (em horas)</t>
+  </si>
+  <si>
+    <t>Curva CAP - C2</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Tempo total de perfuração (em horas)</t>
+  </si>
+  <si>
+    <t>Down</t>
+  </si>
+  <si>
+    <t>Tempo total de perfuração (em dias)</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Tempo de completação (em horas)</t>
+  </si>
+  <si>
+    <t>Tempo de completação (em dias)</t>
+  </si>
+  <si>
+    <t>Tempo total (P+C) (em horas)</t>
+  </si>
+  <si>
+    <t>Tempo total (P+C) (em dias)</t>
+  </si>
+  <si>
+    <t>Tempo de Broca</t>
+  </si>
+  <si>
+    <t>Pela Taxa</t>
+  </si>
+  <si>
+    <t>Na fase BS=26in (CSG=20in):</t>
+  </si>
+  <si>
+    <t>dD/dtc (taxa em m/h):</t>
+  </si>
+  <si>
+    <t>tb-26in (em horas):</t>
+  </si>
+  <si>
+    <t>Na fase BS=17.5in (CSG=13.375in):</t>
+  </si>
+  <si>
+    <t>tb-17.5in (em horas):</t>
+  </si>
+  <si>
+    <t>Na fase BS=12.25in (CSG=9.625in):</t>
+  </si>
+  <si>
+    <t>tb-12.25in (em horas):</t>
+  </si>
+  <si>
+    <t>Na fase BS=8.5in (CSG=7in):</t>
+  </si>
+  <si>
+    <t>tb-8.5in (em horas):</t>
+  </si>
+  <si>
+    <t>Canhoneados (m)</t>
+  </si>
+  <si>
+    <t>Grid Bottom (m)</t>
+  </si>
+  <si>
+    <t>Grid Top (m)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prof Média do 1º Canhoneado (m) </t>
+  </si>
+  <si>
+    <t>Comprimento do Poço (m)</t>
+  </si>
+  <si>
+    <t>1º Óleo - Base</t>
+  </si>
+  <si>
+    <t>Well</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,13 +368,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -112,27 +399,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -145,6 +447,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3245017" cy="4165814"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECD1D3D6-0782-4517-898A-EC48465646A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="622301" y="190500"/>
+          <a:ext cx="3245017" cy="4165814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,146 +766,2385 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.453125" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.1796875" customWidth="1"/>
+    <col min="7" max="7" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <f>VLOOKUP(A2,Produtores!$A$2:$H$16,6,FALSE)</f>
+        <v>3310.8027958499997</v>
+      </c>
+      <c r="D2" s="4">
+        <f>'Tempo de Construção do Poço'!L34</f>
+        <v>163.25685722556358</v>
+      </c>
+      <c r="E2" s="6">
+        <v>46753</v>
+      </c>
+      <c r="F2" s="4">
+        <f>D2</f>
+        <v>163.25685722556358</v>
+      </c>
+      <c r="G2" s="6">
+        <v>47119</v>
+      </c>
+      <c r="H2" s="4">
+        <f>D2</f>
+        <v>163.25685722556358</v>
+      </c>
+      <c r="I2" s="6">
+        <v>46388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <f>VLOOKUP(A3,Injetores!$A$2:$H$15,6,FALSE)</f>
+        <v>3499.5919799499998</v>
+      </c>
+      <c r="D3" s="4">
+        <f>2/3*$D$2*EXP((1-B3)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>139.18199790788483</v>
+      </c>
+      <c r="E3" s="6">
+        <f>E2+D3</f>
+        <v>46892.181997907886</v>
+      </c>
+      <c r="F3" s="4">
+        <f>2/3*$F$2*EXP((1-$B3)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>150.46806629335811</v>
+      </c>
+      <c r="G3" s="6">
+        <f>G2+F3</f>
+        <v>47269.468066293361</v>
+      </c>
+      <c r="H3" s="4">
+        <f>2/3*$H$2*EXP((1-$B3)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>129.22207751534674</v>
+      </c>
+      <c r="I3" s="6">
+        <f>I2+H3</f>
+        <v>46517.222077515347</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <f>VLOOKUP(A4,Produtores!$A$2:$H$16,6,FALSE)</f>
+        <v>3483.4277958000002</v>
+      </c>
+      <c r="D4" s="4">
+        <f>2/3*$D$2*EXP((1-B4)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>120.43247861894271</v>
+      </c>
+      <c r="E4" s="6">
+        <f t="shared" ref="E4:E30" si="0">E3+D4</f>
+        <v>47012.614476526833</v>
+      </c>
+      <c r="F4" s="4">
+        <f>2/3*$F$2*EXP((1-$B4)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>139.18199790788483</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" ref="G4:I30" si="1">G3+F4</f>
+        <v>47408.650064201247</v>
+      </c>
+      <c r="H4" s="4">
+        <f>2/3*$H$2*EXP((1-$B4)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>105.83033831450217</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="1"/>
+        <v>46623.05241582985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <f>VLOOKUP(A5,Injetores!$A$2:$H$15,6,FALSE)</f>
+        <v>3673.2341922000001</v>
+      </c>
+      <c r="D5" s="4">
+        <f>2/3*$D$2*EXP((1-B5)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>105.83033831450217</v>
+      </c>
+      <c r="E5" s="6">
+        <f t="shared" si="0"/>
+        <v>47118.444814841336</v>
+      </c>
+      <c r="F5" s="4">
+        <f>2/3*$F$2*EXP((1-$B5)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>129.22207751534674</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="1"/>
+        <v>47537.872141716594</v>
+      </c>
+      <c r="H5" s="4">
+        <f>2/3*$H$2*EXP((1-$B5)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>89.753446749487225</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
+        <v>46712.805862579335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <f>VLOOKUP(A6,Produtores!$A$2:$H$16,6,FALSE)</f>
+        <v>3120.9725346499999</v>
+      </c>
+      <c r="D6" s="4">
+        <f>2/3*$D$2*EXP((1-B6)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>94.458180010885371</v>
+      </c>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
+        <v>47212.902994852222</v>
+      </c>
+      <c r="F6" s="4">
+        <f>2/3*$F$2*EXP((1-$B6)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>120.43247861894271</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="1"/>
+        <v>47658.304620335541</v>
+      </c>
+      <c r="H6" s="4">
+        <f>2/3*$H$2*EXP((1-$B6)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>78.703971540567423</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
+        <v>46791.509834119905</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <f>VLOOKUP(A7,Injetores!$A$2:$H$15,6,FALSE)</f>
+        <v>3086.9703983999998</v>
+      </c>
+      <c r="D7" s="4">
+        <f>2/3*$D$2*EXP((1-B7)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>85.601534218816624</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>47298.50452907104</v>
+      </c>
+      <c r="F7" s="4">
+        <f>2/3*$F$2*EXP((1-$B7)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>112.67568481790519</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>47770.980305153447</v>
+      </c>
+      <c r="H7" s="4">
+        <f>2/3*$H$2*EXP((1-$B7)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>71.109785693210213</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>46862.619619813115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4">
+        <f>VLOOKUP(A8,Produtores!$A$2:$H$16,6,FALSE)</f>
+        <v>3214.9865725</v>
+      </c>
+      <c r="D8" s="4">
+        <f>2/3*$D$2*EXP((1-B8)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>78.703971540567423</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>47377.20850061161</v>
+      </c>
+      <c r="F8" s="4">
+        <f>2/3*$F$2*EXP((1-$B8)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>105.83033831450217</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>47876.81064346795</v>
+      </c>
+      <c r="H8" s="4">
+        <f>2/3*$H$2*EXP((1-$B8)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>65.890383179175458</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>46928.510002992291</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4">
+        <f>VLOOKUP(A9,Injetores!$A$2:$H$15,6,FALSE)</f>
+        <v>3121.7678833999998</v>
+      </c>
+      <c r="D9" s="4">
+        <f>2/3*$D$2*EXP((1-B9)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>73.332144325462849</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>47450.540644937071</v>
+      </c>
+      <c r="F9" s="4">
+        <f>2/3*$F$2*EXP((1-$B9)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>99.789341228130738</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>47976.599984696084</v>
+      </c>
+      <c r="H9" s="4">
+        <f>2/3*$H$2*EXP((1-$B9)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>62.30314378958473</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
+        <v>46990.813146781875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <f>VLOOKUP(A10,Produtores!$A$2:$H$16,6,FALSE)</f>
+        <v>2957.0051577999998</v>
+      </c>
+      <c r="D10" s="4">
+        <f>2/3*$D$2*EXP((1-B10)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>69.14856108381511</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>47519.689206020885</v>
+      </c>
+      <c r="F10" s="4">
+        <f>2/3*$F$2*EXP((1-$B10)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>94.458180010885371</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>48071.05816470697</v>
+      </c>
+      <c r="H10" s="4">
+        <f>2/3*$H$2*EXP((1-$B10)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>59.837672616662353</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
+        <v>47050.650819398536</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="4">
+        <f>VLOOKUP(A11,Injetores!$A$2:$H$15,6,FALSE)</f>
+        <v>2766.3057250500001</v>
+      </c>
+      <c r="D11" s="4">
+        <f>2/3*$D$2*EXP((1-B11)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>65.890383179175458</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>47585.579589200061</v>
+      </c>
+      <c r="F11" s="4">
+        <f>2/3*$F$2*EXP((1-$B11)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>89.753446749487225</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>48160.811611456455</v>
+      </c>
+      <c r="H11" s="4">
+        <f>2/3*$H$2*EXP((1-$B11)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>58.143180712344595</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>47108.79400011088</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4">
+        <f>VLOOKUP(A12,Produtores!$A$2:$H$16,6,FALSE)</f>
+        <v>3265.7711790499998</v>
+      </c>
+      <c r="D12" s="4">
+        <f>2/3*$D$2*EXP((1-B12)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>63.352911675656145</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="0"/>
+        <v>47648.932500875715</v>
+      </c>
+      <c r="F12" s="4">
+        <f>2/3*$F$2*EXP((1-$B12)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>85.601534218816624</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
+        <v>48246.413145675273</v>
+      </c>
+      <c r="H12" s="4">
+        <f>2/3*$H$2*EXP((1-$B12)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>56.978574593508903</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>47165.772574704388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="4">
+        <f>VLOOKUP(A13,Injetores!$A$2:$H$15,6,FALSE)</f>
+        <v>3293.1372067000002</v>
+      </c>
+      <c r="D13" s="4">
+        <f>2/3*$D$2*EXP((1-B13)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>61.376726881693926</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="0"/>
+        <v>47710.309227757411</v>
+      </c>
+      <c r="F13" s="4">
+        <f>2/3*$F$2*EXP((1-$B13)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>81.937484270697666</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
+        <v>48328.35062994597</v>
+      </c>
+      <c r="H13" s="4">
+        <f>2/3*$H$2*EXP((1-$B13)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>56.17815329401877</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
+        <v>47221.95072799841</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4">
+        <f>VLOOKUP(A14,Produtores!$A$2:$H$16,6,FALSE)</f>
+        <v>3219.0904537000001</v>
+      </c>
+      <c r="D14" s="4">
+        <f>2/3*$D$2*EXP((1-B14)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>59.837672616662353</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="0"/>
+        <v>47770.146900374071</v>
+      </c>
+      <c r="F14" s="4">
+        <f>2/3*$F$2*EXP((1-$B14)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>78.703971540567423</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>48407.054601486539</v>
+      </c>
+      <c r="H14" s="4">
+        <f>2/3*$H$2*EXP((1-$B14)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>55.62803231636326</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>47277.578760314776</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="4">
+        <f>VLOOKUP(A15,Injetores!$A$2:$H$15,6,FALSE)</f>
+        <v>3247.4438475500001</v>
+      </c>
+      <c r="D15" s="4">
+        <f>2/3*$D$2*EXP((1-B15)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>58.639055949866375</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="0"/>
+        <v>47828.78595632394</v>
+      </c>
+      <c r="F15" s="4">
+        <f>2/3*$F$2*EXP((1-$B15)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>75.850406571759635</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
+        <v>48482.905008058297</v>
+      </c>
+      <c r="H15" s="4">
+        <f>2/3*$H$2*EXP((1-$B15)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>55.249940066382621</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>47332.828700381157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4">
+        <f>VLOOKUP(A16,Produtores!$A$2:$H$16,6,FALSE)</f>
+        <v>3184.4020993499998</v>
+      </c>
+      <c r="D16" s="4">
+        <f>2/3*$D$2*EXP((1-B16)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>57.705572351163227</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
+        <v>47886.491528675106</v>
+      </c>
+      <c r="F16" s="4">
+        <f>2/3*$F$2*EXP((1-$B16)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>73.332144325462849</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="1"/>
+        <v>48556.237152383757</v>
+      </c>
+      <c r="H16" s="4">
+        <f>2/3*$H$2*EXP((1-$B16)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>54.990081316576976</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="1"/>
+        <v>47387.818781697737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="4">
+        <f>VLOOKUP(A17,Injetores!$A$2:$H$15,6,FALSE)</f>
+        <v>3354.6211551000001</v>
+      </c>
+      <c r="D17" s="4">
+        <f>2/3*$D$2*EXP((1-B17)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>56.978574593508903</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="0"/>
+        <v>47943.470103268613</v>
+      </c>
+      <c r="F17" s="4">
+        <f>2/3*$F$2*EXP((1-$B17)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>71.109785693210213</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="1"/>
+        <v>48627.346938076967</v>
+      </c>
+      <c r="H17" s="4">
+        <f>2/3*$H$2*EXP((1-$B17)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>54.811483183835527</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="1"/>
+        <v>47442.630264881569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4">
+        <f>VLOOKUP(A18,Produtores!$A$2:$H$16,6,FALSE)</f>
+        <v>3459.6552736500003</v>
+      </c>
+      <c r="D18" s="4">
+        <f>2/3*$D$2*EXP((1-B18)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>56.412388170556561</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="0"/>
+        <v>47999.882491439173</v>
+      </c>
+      <c r="F18" s="4">
+        <f>2/3*$F$2*EXP((1-$B18)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>69.14856108381511</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="1"/>
+        <v>48696.495499160781</v>
+      </c>
+      <c r="H18" s="4">
+        <f>2/3*$H$2*EXP((1-$B18)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>54.688734601990241</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="1"/>
+        <v>47497.318999483556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="4">
+        <f>VLOOKUP(A19,Injetores!$A$2:$H$15,6,FALSE)</f>
+        <v>3431.6621095999999</v>
+      </c>
+      <c r="D19" s="4">
+        <f>2/3*$D$2*EXP((1-B19)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>55.97144174099688</v>
+      </c>
+      <c r="E19" s="6">
+        <f t="shared" si="0"/>
+        <v>48055.853933180173</v>
+      </c>
+      <c r="F19" s="4">
+        <f>2/3*$F$2*EXP((1-$B19)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>67.417786440751271</v>
+      </c>
+      <c r="G19" s="6">
+        <f t="shared" si="1"/>
+        <v>48763.913285601535</v>
+      </c>
+      <c r="H19" s="4">
+        <f>2/3*$H$2*EXP((1-$B19)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>54.604370817701181</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="1"/>
+        <v>47551.923370301258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4">
+        <f>VLOOKUP(A20,Produtores!$A$2:$H$16,6,FALSE)</f>
+        <v>3270.6032104999999</v>
+      </c>
+      <c r="D20" s="4">
+        <f>2/3*$D$2*EXP((1-B20)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>55.62803231636326</v>
+      </c>
+      <c r="E20" s="6">
+        <f t="shared" si="0"/>
+        <v>48111.481965496539</v>
+      </c>
+      <c r="F20" s="4">
+        <f>2/3*$F$2*EXP((1-$B20)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>65.890383179175458</v>
+      </c>
+      <c r="G20" s="6">
+        <f t="shared" si="1"/>
+        <v>48829.803668780711</v>
+      </c>
+      <c r="H20" s="4">
+        <f>2/3*$H$2*EXP((1-$B20)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>54.546388493241075</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="1"/>
+        <v>47606.469758794497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="4">
+        <f>VLOOKUP(A21,Injetores!$A$2:$H$15,6,FALSE)</f>
+        <v>3385.24328655</v>
+      </c>
+      <c r="D21" s="4">
+        <f>2/3*$D$2*EXP((1-B21)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>55.360584787544497</v>
+      </c>
+      <c r="E21" s="6">
+        <f t="shared" si="0"/>
+        <v>48166.842550284084</v>
+      </c>
+      <c r="F21" s="4">
+        <f>2/3*$F$2*EXP((1-$B21)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>64.542454531837194</v>
+      </c>
+      <c r="G21" s="6">
+        <f t="shared" si="1"/>
+        <v>48894.346123312549</v>
+      </c>
+      <c r="H21" s="4">
+        <f>2/3*$H$2*EXP((1-$B21)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>54.506537863280265</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="1"/>
+        <v>47660.976296657776</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4">
+        <f>VLOOKUP(A22,Produtores!$A$2:$H$16,6,FALSE)</f>
+        <v>3523.33160365</v>
+      </c>
+      <c r="D22" s="4">
+        <f>2/3*$D$2*EXP((1-B22)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>55.152296442669936</v>
+      </c>
+      <c r="E22" s="6">
+        <f t="shared" si="0"/>
+        <v>48221.994846726753</v>
+      </c>
+      <c r="F22" s="4">
+        <f>2/3*$F$2*EXP((1-$B22)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>63.352911675656145</v>
+      </c>
+      <c r="G22" s="6">
+        <f t="shared" si="1"/>
+        <v>48957.699034988203</v>
+      </c>
+      <c r="H22" s="4">
+        <f>2/3*$H$2*EXP((1-$B22)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>54.479148952555136</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="1"/>
+        <v>47715.455445610329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="4">
+        <f>VLOOKUP(A23,Injetores!$A$2:$H$15,6,FALSE)</f>
+        <v>3238.4490352500002</v>
+      </c>
+      <c r="D23" s="4">
+        <f>2/3*$D$2*EXP((1-B23)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>54.990081316576976</v>
+      </c>
+      <c r="E23" s="6">
+        <f t="shared" si="0"/>
+        <v>48276.984928043334</v>
+      </c>
+      <c r="F23" s="4">
+        <f>2/3*$F$2*EXP((1-$B23)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>62.30314378958473</v>
+      </c>
+      <c r="G23" s="6">
+        <f t="shared" si="1"/>
+        <v>49020.002178777788</v>
+      </c>
+      <c r="H23" s="4">
+        <f>2/3*$H$2*EXP((1-$B23)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>54.460324847855993</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="1"/>
+        <v>47769.915770458181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="4">
+        <f>VLOOKUP(A24,Produtores!$A$2:$H$16,6,FALSE)</f>
+        <v>3146.5059207499999</v>
+      </c>
+      <c r="D24" s="4">
+        <f>2/3*$D$2*EXP((1-B24)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>54.863748049349752</v>
+      </c>
+      <c r="E24" s="6">
+        <f t="shared" si="0"/>
+        <v>48331.848676092683</v>
+      </c>
+      <c r="F24" s="4">
+        <f>2/3*$F$2*EXP((1-$B24)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>61.376726881693926</v>
+      </c>
+      <c r="G24" s="6">
+        <f t="shared" si="1"/>
+        <v>49081.378905659483</v>
+      </c>
+      <c r="H24" s="4">
+        <f>2/3*$H$2*EXP((1-$B24)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>54.447387242513429</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="1"/>
+        <v>47824.363157700696</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="4">
+        <f>VLOOKUP(A25,Injetores!$A$2:$H$15,6,FALSE)</f>
+        <v>3293.8698732499997</v>
+      </c>
+      <c r="D25" s="4">
+        <f>2/3*$D$2*EXP((1-B25)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>54.765359601905224</v>
+      </c>
+      <c r="E25" s="6">
+        <f t="shared" si="0"/>
+        <v>48386.614035694591</v>
+      </c>
+      <c r="F25" s="4">
+        <f>2/3*$F$2*EXP((1-$B25)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>60.559166829978295</v>
+      </c>
+      <c r="G25" s="6">
+        <f t="shared" si="1"/>
+        <v>49141.938072489458</v>
+      </c>
+      <c r="H25" s="4">
+        <f>2/3*$H$2*EXP((1-$B25)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>54.438495365068256</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="1"/>
+        <v>47878.801653065762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="4">
+        <f>VLOOKUP(A26,Produtores!$A$2:$H$16,6,FALSE)</f>
+        <v>3313.0681149499997</v>
+      </c>
+      <c r="D26" s="4">
+        <f>2/3*$D$2*EXP((1-B26)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>54.688734601990241</v>
+      </c>
+      <c r="E26" s="6">
+        <f t="shared" si="0"/>
+        <v>48441.302770296577</v>
+      </c>
+      <c r="F26" s="4">
+        <f>2/3*$F$2*EXP((1-$B26)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>59.837672616662353</v>
+      </c>
+      <c r="G26" s="6">
+        <f t="shared" si="1"/>
+        <v>49201.775745106119</v>
+      </c>
+      <c r="H26" s="4">
+        <f>2/3*$H$2*EXP((1-$B26)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>54.432384073031869</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="1"/>
+        <v>47933.234037138791</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="4">
+        <f>VLOOKUP(A27,Injetores!$A$2:$H$15,6,FALSE)</f>
+        <v>3359.5495609</v>
+      </c>
+      <c r="D27" s="4">
+        <f>2/3*$D$2*EXP((1-B27)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>54.629058992053608</v>
+      </c>
+      <c r="E27" s="6">
+        <f t="shared" si="0"/>
+        <v>48495.931829288631</v>
+      </c>
+      <c r="F27" s="4">
+        <f>2/3*$F$2*EXP((1-$B27)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>59.200956208178319</v>
+      </c>
+      <c r="G27" s="6">
+        <f t="shared" si="1"/>
+        <v>49260.976701314299</v>
+      </c>
+      <c r="H27" s="4">
+        <f>2/3*$H$2*EXP((1-$B27)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>54.428183847535699</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="1"/>
+        <v>47987.662220986327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4">
+        <f>VLOOKUP(A28,Produtores!$A$2:$H$16,6,FALSE)</f>
+        <v>3276.4739989</v>
+      </c>
+      <c r="D28" s="4">
+        <f>2/3*$D$2*EXP((1-B28)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>54.5825835803047</v>
+      </c>
+      <c r="E28" s="6">
+        <f t="shared" si="0"/>
+        <v>48550.514412868935</v>
+      </c>
+      <c r="F28" s="4">
+        <f>2/3*$F$2*EXP((1-$B28)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>58.639055949866375</v>
+      </c>
+      <c r="G28" s="6">
+        <f t="shared" si="1"/>
+        <v>49319.615757264168</v>
+      </c>
+      <c r="H28" s="4">
+        <f>2/3*$H$2*EXP((1-$B28)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>54.425297077583672</v>
+      </c>
+      <c r="I28" s="6">
+        <f t="shared" si="1"/>
+        <v>48042.087518063912</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4">
+        <f>VLOOKUP(A29,Injetores!$A$2:$H$15,6,FALSE)</f>
+        <v>2937.0680237500001</v>
+      </c>
+      <c r="D29" s="4">
+        <f>2/3*$D$2*EXP((1-B29)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>54.546388493241075</v>
+      </c>
+      <c r="E29" s="6">
+        <f t="shared" si="0"/>
+        <v>48605.060801362175</v>
+      </c>
+      <c r="F29" s="4">
+        <f>2/3*$F$2*EXP((1-$B29)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>58.143180712344595</v>
+      </c>
+      <c r="G29" s="6">
+        <f t="shared" si="1"/>
+        <v>49377.758937976512</v>
+      </c>
+      <c r="H29" s="4">
+        <f>2/3*$H$2*EXP((1-$B29)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>54.423313031545312</v>
+      </c>
+      <c r="I29" s="6">
+        <f t="shared" si="1"/>
+        <v>48096.51083109546</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="4">
+        <f>VLOOKUP(A30,Produtores!$A$2:$H$16,6,FALSE)</f>
+        <v>3211.0917362999999</v>
+      </c>
+      <c r="D30" s="4">
+        <f>2/3*$D$2*EXP((1-B30)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
+        <v>54.518199731092594</v>
+      </c>
+      <c r="E30" s="6">
+        <f t="shared" si="0"/>
+        <v>48659.579001093269</v>
+      </c>
+      <c r="F30" s="4">
+        <f>2/3*$F$2*EXP((1-$B30)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
+        <v>57.705572351163227</v>
+      </c>
+      <c r="G30" s="6">
+        <f t="shared" si="1"/>
+        <v>49435.464510327678</v>
+      </c>
+      <c r="H30" s="4">
+        <f>2/3*$H$2*EXP((1-$B30)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
+        <v>54.421949417974517</v>
+      </c>
+      <c r="I30" s="6">
+        <f t="shared" si="1"/>
+        <v>48150.932780513438</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484B91E4-E1C1-4ACE-9612-3714C6209131}">
+  <dimension ref="D2:N74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="8" max="8" width="26.1796875" customWidth="1"/>
+    <col min="9" max="9" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" customWidth="1"/>
+    <col min="13" max="13" width="16.54296875" customWidth="1"/>
+    <col min="14" max="14" width="14.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="K3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="4">
+        <f>J4*$I$7</f>
+        <v>361.06293685156243</v>
+      </c>
+      <c r="J4" s="13">
+        <v>0.15625</v>
+      </c>
+      <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="11">
+        <v>58000</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4" s="11">
+        <f>L4*M4</f>
+        <v>116000</v>
+      </c>
+    </row>
+    <row r="5" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="4">
+        <f>J5*$I$7</f>
+        <v>866.55104844374989</v>
+      </c>
+      <c r="J5" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="K5" t="s">
+        <v>47</v>
+      </c>
+      <c r="L5" s="11">
+        <v>45000</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5" s="11">
+        <f>L5*M5</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="6" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="4">
+        <f>J6*$I$7</f>
+        <v>1516.4643347765623</v>
+      </c>
+      <c r="J6" s="13">
+        <v>0.65625</v>
+      </c>
+      <c r="K6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="11">
+        <v>23000</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6" s="11">
+        <f>L6*M6</f>
+        <v>138000</v>
+      </c>
+    </row>
+    <row r="7" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H7" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="4">
+        <f>Cronograma!C2-I3</f>
+        <v>2310.8027958499997</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" s="11">
+        <v>16000</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7" s="11">
+        <f>L7*M7</f>
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="8" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="I8" s="4"/>
+      <c r="M8" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N8" s="12">
+        <f>SUM(N4:N7)</f>
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="10" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I10" s="10">
+        <v>180000</v>
+      </c>
+      <c r="K10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="4">
+        <f>(1/3.6/0.000889) * (EXP(0.000889*I7)-1)</f>
+        <v>2125.1730253898713</v>
+      </c>
+    </row>
+    <row r="11" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="10">
+        <f>I10*ROUNDUP(L34,0)</f>
+        <v>29520000</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="9">
+        <f>L10/24</f>
+        <v>88.548876057911301</v>
+      </c>
+    </row>
+    <row r="13" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="11">
+        <f>(N8+I10*(L11+L16+L25))/I7</f>
+        <v>7457.2066110554215</v>
+      </c>
+      <c r="K13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="K14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14">
+        <f>SUM(M4:M7) - 1</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="K15" t="s">
+        <v>60</v>
+      </c>
+      <c r="L15">
+        <f>L14*2</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="K16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L16" s="7">
+        <f>L15/24</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="K18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="K19" t="s">
+        <v>63</v>
+      </c>
+      <c r="L19" s="4">
+        <f>0.003*(I$3+I4/2) + 0.003*(I$3+I4)</f>
+        <v>7.6247832158320303</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="K20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" s="4">
+        <f>0.003*(I$3+I5/2) + 0.003*(I$3+I5)</f>
+        <v>9.8994797179968756</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="K21" t="s">
+        <v>65</v>
+      </c>
+      <c r="L21" s="4">
+        <f>0.003*(I$3+I6/6) + 0.003*(I$3+2*I6/6)+ 0.003*(I$3+3*I6/6) + 0.003*(I$3+4*I6/6) + 0.003*(I$3+5*I6/6) + 0.003*(I$3+I6)</f>
+        <v>33.922875515153905</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="K22" t="s">
+        <v>66</v>
+      </c>
+      <c r="L22" s="4">
+        <f>0.003*(I$3+I7/6) + 0.003*(I$3+2*I7/6)+ 0.003*(I$3+3*I7/6) + 0.003*(I$3+4*I7/6) + 0.003*(I$3+5*I7/6)</f>
+        <v>32.331020968874995</v>
+      </c>
+    </row>
+    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="K24" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="4">
+        <f>SUM(L19:L22)</f>
+        <v>83.778159417857808</v>
+      </c>
+    </row>
+    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="L25" s="9">
+        <f>L24/24</f>
+        <v>3.4907566424107421</v>
+      </c>
+    </row>
+    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+      <c r="K27" t="s">
+        <v>70</v>
+      </c>
+      <c r="L27" s="4">
+        <f>L24+L15+L10</f>
+        <v>2238.9511848077291</v>
+      </c>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D28" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28">
+        <v>0.125</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L28" s="9">
+        <f>L27/24</f>
+        <v>93.289632700322045</v>
+      </c>
+    </row>
+    <row r="29" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29">
+        <v>0.375</v>
+      </c>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="K30" t="s">
+        <v>74</v>
+      </c>
+      <c r="L30" s="4">
+        <f>0.75*L27</f>
+        <v>1679.2133886057968</v>
+      </c>
+    </row>
+    <row r="31" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="L31" s="9">
+        <f>0.75*L28</f>
+        <v>69.967224525241534</v>
+      </c>
+    </row>
+    <row r="32" spans="4:12" x14ac:dyDescent="0.35">
+      <c r="K32" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="K33" t="s">
+        <v>76</v>
+      </c>
+      <c r="L33" s="4">
+        <f>L30+L27</f>
+        <v>3918.1645734135259</v>
+      </c>
+    </row>
+    <row r="34" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="K34" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" s="9">
+        <f>L31+L28</f>
+        <v>163.25685722556358</v>
+      </c>
+    </row>
+    <row r="35" spans="11:12" x14ac:dyDescent="0.35">
+      <c r="L35" s="4"/>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D59" t="s">
+        <v>78</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D61" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61">
+        <f>3.6*EXP(-0.000889*I4)</f>
+        <v>2.6115630050433492</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D62" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62">
+        <f>(1/3.6/0.000889) * (EXP(0.000889*I4)-1)</f>
+        <v>118.26172844888372</v>
+      </c>
+      <c r="F62">
+        <f>I4/E61</f>
+        <v>138.25549533145158</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D64" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D65" t="s">
+        <v>81</v>
+      </c>
+      <c r="E65">
+        <f>3.6*EXP(-0.000889*(I5-I4))</f>
+        <v>2.2968874280511096</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D66" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66">
+        <f>(1/3.6/0.000889) * (EXP(0.000889*(I5-I4))-1)</f>
+        <v>177.27110927971231</v>
+      </c>
+      <c r="F66">
+        <f>(I5-I4)/E65</f>
+        <v>220.07526595288567</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D69" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69">
+        <f>3.6*EXP(-0.000889*(I6-I5))</f>
+        <v>2.0201281175108665</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D70" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70">
+        <f>(1/3.6/0.000889) * (EXP(0.000889*(I6-I5))-1)</f>
+        <v>244.36482664968557</v>
+      </c>
+      <c r="F70">
+        <f>(I6-I5)/E69</f>
+        <v>321.71884579954934</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D73" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73">
+        <f>3.6*EXP(-0.000889*(I7-I6))</f>
+        <v>1.776716421239948</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.35">
+      <c r="D74" t="s">
+        <v>88</v>
+      </c>
+      <c r="E74">
+        <f>(1/3.6/0.000889) * (EXP(0.000889*(I7-I6))-1)</f>
+        <v>320.65044170176031</v>
+      </c>
+      <c r="F74">
+        <f>(I7-I6)/E73</f>
+        <v>447.08229832146122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Arial Black"&amp;11&amp;K008542INTERNA \ Força de Trabalho</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48525875-F619-4DAB-9065-A9C6EEA39937}">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.453125" customWidth="1"/>
-    <col min="2" max="2" width="23.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>673.46966599999996</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2641.0795898000001</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2633.5866698999998</v>
+      </c>
+      <c r="E2" s="4">
+        <f>AVERAGE(C2:D2)</f>
+        <v>2637.3331298499998</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F16" si="0">B2+E2</f>
+        <v>3310.8027958499997</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B3" s="4">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>785.59307899999999</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2698.9992676000002</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2696.6701659999999</v>
+      </c>
+      <c r="E3" s="4">
+        <f>AVERAGE(C3:D3)</f>
+        <v>2697.8347168</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="0"/>
+        <v>3483.4277958000002</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>12</v>
       </c>
       <c r="B4" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>746.78564500000005</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2374.9118652000002</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2373.4619140999998</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" ref="E4:E16" si="1">AVERAGE(C4:D4)</f>
+        <v>2374.18688965</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="0"/>
+        <v>3120.9725346499999</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
       </c>
       <c r="B5" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>515.41625999999997</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2700.6276855000001</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2698.5129394999999</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="1"/>
+        <v>2699.5703125</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>3214.9865725</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>16</v>
       </c>
       <c r="B6" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>480.42385899999999</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2478.6408691000001</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2474.5217284999999</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
+        <v>2476.5812987999998</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>2957.0051577999998</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>18</v>
       </c>
       <c r="B7" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>749.72247300000004</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2517.0419922000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2515.0554198999998</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="1"/>
+        <v>2516.04870605</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>3265.7711790499998</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>20</v>
       </c>
       <c r="B8" s="4">
-        <v>3000</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>741.23681599999998</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2480.0161133000001</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2475.6911620999999</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="1"/>
+        <v>2477.8536377</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>3219.0904537000001</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
       </c>
       <c r="B9" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>740.93969700000002</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2445.0944823999998</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2441.8303222999998</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="1"/>
+        <v>2443.46240235</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>3184.4020993499998</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>24</v>
       </c>
       <c r="B10" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
+        <v>720.38855000000001</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2741.0532226999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2737.4802245999999</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>2739.2667236500001</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>3459.6552736500003</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4">
+        <v>718.43048099999999</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2554.5012207</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2549.8442383000001</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="1"/>
+        <v>2552.1727295000001</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>3270.6032104999999</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4">
+        <v>790.76275599999997</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2735.1972655999998</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2729.9404297000001</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="1"/>
+        <v>2732.56884765</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>3523.33160365</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4">
+        <v>748.04974400000003</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2400.0583495999999</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2396.8540039</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="1"/>
+        <v>2398.4561767499999</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>3146.5059207499999</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4">
+        <v>807.04040499999996</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2508.1245116999999</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2503.9309082</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="1"/>
+        <v>2506.0277099499999</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>3313.0681149499997</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="4">
+        <v>768.24841300000003</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2509.3962402000002</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2507.0549316000001</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="1"/>
+        <v>2508.2255859000002</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>3276.4739989</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="4">
+        <v>761.53912400000002</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2451.4777832</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2447.6274414</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="1"/>
+        <v>2449.5526123</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>3211.0917362999999</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F94E162E-A2FD-4B65-90AB-853E28FE4979}">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7265625" customWidth="1"/>
+    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="4">
+        <v>796.10247800000002</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2712.8527832</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2694.1262207</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:E15" si="0">AVERAGE(C2:D2)</f>
+        <v>2703.48950195</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F15" si="1">B2+E2</f>
+        <v>3499.5919799499998</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>951.20953399999996</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2723.0761719000002</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2720.9731445000002</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="0"/>
+        <v>2722.0246582</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="1"/>
+        <v>3673.2341922000001</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4">
+        <v>724.09991500000001</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2363.0881347999998</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2362.6528320000002</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>2362.8704834</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>3086.9703983999998</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="4">
+        <v>744.49114999999995</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2379.1496582</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2375.4038086</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>2377.2767334</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>3121.7678833999998</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="4">
+        <v>445.526184</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2323.1008301000002</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2318.4582519999999</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>2320.7795410500003</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>2766.3057250500001</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4">
+        <v>766.806152</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2527.8034668</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2524.8586426000002</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>2526.3310547000001</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
+        <v>3293.1372067000002</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4">
+        <v>775.92382799999996</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2473.5429687999999</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2469.4970702999999</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>2471.5200195500001</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
+        <v>3247.4438475500001</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <v>901.79278599999998</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2453.5195312000001</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2452.1372070000002</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>2452.8283691000001</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
+        <v>3354.6211551000001</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="4">
+        <v>682.28784199999996</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2750.171875</v>
+      </c>
+      <c r="D10" s="4">
+        <v>2748.5766601999999</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>2749.3742676000002</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>3431.6621095999999</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4">
+        <v>787.01135299999999</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2599.3674316000001</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2597.0964355000001</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>2598.2319335500001</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>3385.24328655</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="4">
+        <v>766.94171100000005</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2472.5256347999998</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2470.4890137000002</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>2471.5073242500002</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>3238.4490352500002</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4">
+        <v>688.44409199999996</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2606.7910155999998</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2604.0605469000002</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>2605.42578125</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>3293.8698732499997</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="4">
+        <v>715.912598</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2644.9421387000002</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2642.3317870999999</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>2643.6369629000001</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>3359.5495609</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4">
+        <v>460.46951300000001</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2477.3000487999998</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2475.8969726999999</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
+        <v>2476.5985107500001</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
+        <v>2937.0680237500001</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <ignoredErrors>
+    <ignoredError sqref="E4 E5:F6" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/dados_perfuracao.xlsx
+++ b/dados_perfuracao.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/hygor_vinicius_petrobras_com_br/Documents/Documentos/GitHub/Trabalho_AEPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="640" documentId="11_F25DC773A252ABDACC104873415D5E145ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C14493F-E3D2-4B3E-9E22-C17D9DA6E82C}"/>
+  <xr:revisionPtr revIDLastSave="694" documentId="11_F25DC773A252ABDACC104873415D5E145ADE58F9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{804B217F-DBB9-4CE4-A359-778261EF2D8E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cronograma" sheetId="1" r:id="rId1"/>
+    <sheet name="Cronograma_Perfuração" sheetId="1" r:id="rId1"/>
     <sheet name="Tempo de Construção do Poço" sheetId="6" r:id="rId2"/>
     <sheet name="Produtores" sheetId="3" r:id="rId3"/>
     <sheet name="Injetores" sheetId="2" r:id="rId4"/>
@@ -424,7 +424,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -768,7 +768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" activeCellId="1" sqref="G2 E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -819,26 +821,25 @@
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <f>VLOOKUP(A2,Produtores!$A$2:$H$16,6,FALSE)</f>
-        <v>3310.8027958499997</v>
+        <v>3438.9</v>
       </c>
       <c r="D2" s="4">
         <f>'Tempo de Construção do Poço'!L34</f>
-        <v>163.25685722556358</v>
+        <v>184.85236495126645</v>
       </c>
       <c r="E2" s="6">
         <v>46753</v>
       </c>
       <c r="F2" s="4">
         <f>D2</f>
-        <v>163.25685722556358</v>
+        <v>184.85236495126645</v>
       </c>
       <c r="G2" s="6">
         <v>47119</v>
       </c>
       <c r="H2" s="4">
         <f>D2</f>
-        <v>163.25685722556358</v>
+        <v>184.85236495126645</v>
       </c>
       <c r="I2" s="6">
         <v>46388</v>
@@ -851,33 +852,32 @@
       <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
-        <f>VLOOKUP(A3,Injetores!$A$2:$H$15,6,FALSE)</f>
-        <v>3499.5919799499998</v>
+      <c r="C3">
+        <v>3630.4</v>
       </c>
       <c r="D3" s="4">
         <f>2/3*$D$2*EXP((1-B3)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>139.18199790788483</v>
+        <v>157.59289936818709</v>
       </c>
       <c r="E3" s="6">
         <f>E2+D3</f>
-        <v>46892.181997907886</v>
+        <v>46910.592899368188</v>
       </c>
       <c r="F3" s="4">
         <f>2/3*$F$2*EXP((1-$B3)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>150.46806629335811</v>
+        <v>170.37188132037539</v>
       </c>
       <c r="G3" s="6">
         <f>G2+F3</f>
-        <v>47269.468066293361</v>
+        <v>47289.371881320374</v>
       </c>
       <c r="H3" s="4">
         <f>2/3*$H$2*EXP((1-$B3)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>129.22207751534674</v>
+        <v>146.31548737719646</v>
       </c>
       <c r="I3" s="6">
         <f>I2+H3</f>
-        <v>46517.222077515347</v>
+        <v>46534.3154873772</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -893,27 +893,27 @@
       </c>
       <c r="D4" s="4">
         <f>2/3*$D$2*EXP((1-B4)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>120.43247861894271</v>
+        <v>136.36320622597688</v>
       </c>
       <c r="E4" s="6">
         <f t="shared" ref="E4:E30" si="0">E3+D4</f>
-        <v>47012.614476526833</v>
+        <v>47046.956105594167</v>
       </c>
       <c r="F4" s="4">
         <f>2/3*$F$2*EXP((1-$B4)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>139.18199790788483</v>
+        <v>157.59289936818709</v>
       </c>
       <c r="G4" s="6">
         <f t="shared" ref="G4:I30" si="1">G3+F4</f>
-        <v>47408.650064201247</v>
+        <v>47446.964780688562</v>
       </c>
       <c r="H4" s="4">
         <f>2/3*$H$2*EXP((1-$B4)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>105.83033831450217</v>
+        <v>119.82950458245794</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" si="1"/>
-        <v>46623.05241582985</v>
+        <v>46654.144991959656</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -923,33 +923,32 @@
       <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="4">
-        <f>VLOOKUP(A5,Injetores!$A$2:$H$15,6,FALSE)</f>
-        <v>3673.2341922000001</v>
+      <c r="C5">
+        <v>3516.6</v>
       </c>
       <c r="D5" s="4">
         <f>2/3*$D$2*EXP((1-B5)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>105.83033831450217</v>
+        <v>119.82950458245794</v>
       </c>
       <c r="E5" s="6">
         <f t="shared" si="0"/>
-        <v>47118.444814841336</v>
+        <v>47166.785610176623</v>
       </c>
       <c r="F5" s="4">
         <f>2/3*$F$2*EXP((1-$B5)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>129.22207751534674</v>
+        <v>146.31548737719646</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="1"/>
-        <v>47537.872141716594</v>
+        <v>47593.280268065762</v>
       </c>
       <c r="H5" s="4">
         <f>2/3*$H$2*EXP((1-$B5)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>89.753446749487225</v>
+        <v>101.62597256939199</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="1"/>
-        <v>46712.805862579335</v>
+        <v>46755.770964529045</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -965,27 +964,27 @@
       </c>
       <c r="D6" s="4">
         <f>2/3*$D$2*EXP((1-B6)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>94.458180010885371</v>
+        <v>106.95304479541642</v>
       </c>
       <c r="E6" s="6">
         <f t="shared" si="0"/>
-        <v>47212.902994852222</v>
+        <v>47273.73865497204</v>
       </c>
       <c r="F6" s="4">
         <f>2/3*$F$2*EXP((1-$B6)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>120.43247861894271</v>
+        <v>136.36320622597688</v>
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>47658.304620335541</v>
+        <v>47729.643474291741</v>
       </c>
       <c r="H6" s="4">
         <f>2/3*$H$2*EXP((1-$B6)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>78.703971540567423</v>
+        <v>89.114880180683528</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="1"/>
-        <v>46791.509834119905</v>
+        <v>46844.88584470973</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -1001,27 +1000,27 @@
       </c>
       <c r="D7" s="4">
         <f>2/3*$D$2*EXP((1-B7)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>85.601534218816624</v>
+        <v>96.924847830081021</v>
       </c>
       <c r="E7" s="6">
         <f t="shared" si="0"/>
-        <v>47298.50452907104</v>
+        <v>47370.663502802119</v>
       </c>
       <c r="F7" s="4">
         <f>2/3*$F$2*EXP((1-$B7)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>112.67568481790519</v>
+        <v>127.58034893637455</v>
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>47770.980305153447</v>
+        <v>47857.223823228116</v>
       </c>
       <c r="H7" s="4">
         <f>2/3*$H$2*EXP((1-$B7)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>71.109785693210213</v>
+        <v>80.516140515960871</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="1"/>
-        <v>46862.619619813115</v>
+        <v>46925.40198522569</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -1037,27 +1036,27 @@
       </c>
       <c r="D8" s="4">
         <f>2/3*$D$2*EXP((1-B8)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>78.703971540567423</v>
+        <v>89.114880180683528</v>
       </c>
       <c r="E8" s="6">
         <f t="shared" si="0"/>
-        <v>47377.20850061161</v>
+        <v>47459.778382982804</v>
       </c>
       <c r="F8" s="4">
         <f>2/3*$F$2*EXP((1-$B8)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>105.83033831450217</v>
+        <v>119.82950458245794</v>
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>47876.81064346795</v>
+        <v>47977.053327810572</v>
       </c>
       <c r="H8" s="4">
         <f>2/3*$H$2*EXP((1-$B8)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>65.890383179175458</v>
+        <v>74.606318933282296</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
-        <v>46928.510002992291</v>
+        <v>47000.008304158975</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -1073,27 +1072,27 @@
       </c>
       <c r="D9" s="4">
         <f>2/3*$D$2*EXP((1-B9)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>73.332144325462849</v>
+        <v>83.032471259570428</v>
       </c>
       <c r="E9" s="6">
         <f t="shared" si="0"/>
-        <v>47450.540644937071</v>
+        <v>47542.810854242372</v>
       </c>
       <c r="F9" s="4">
         <f>2/3*$F$2*EXP((1-$B9)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>99.789341228130738</v>
+        <v>112.98940844771124</v>
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
-        <v>47976.599984696084</v>
+        <v>48090.042736258285</v>
       </c>
       <c r="H9" s="4">
         <f>2/3*$H$2*EXP((1-$B9)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>62.30314378958473</v>
+        <v>70.544561919939824</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="1"/>
-        <v>46990.813146781875</v>
+        <v>47070.552866078913</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -1109,27 +1108,27 @@
       </c>
       <c r="D10" s="4">
         <f>2/3*$D$2*EXP((1-B10)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>69.14856108381511</v>
+        <v>78.295486428847042</v>
       </c>
       <c r="E10" s="6">
         <f t="shared" si="0"/>
-        <v>47519.689206020885</v>
+        <v>47621.10634067122</v>
       </c>
       <c r="F10" s="4">
         <f>2/3*$F$2*EXP((1-$B10)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>94.458180010885371</v>
+        <v>106.95304479541642</v>
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>48071.05816470697</v>
+        <v>48196.995781053702</v>
       </c>
       <c r="H10" s="4">
         <f>2/3*$H$2*EXP((1-$B10)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>59.837672616662353</v>
+        <v>67.752959871615502</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="1"/>
-        <v>47050.650819398536</v>
+        <v>47138.305825950527</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -1145,27 +1144,27 @@
       </c>
       <c r="D11" s="4">
         <f>2/3*$D$2*EXP((1-B11)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>65.890383179175458</v>
+        <v>74.606318933282296</v>
       </c>
       <c r="E11" s="6">
         <f t="shared" si="0"/>
-        <v>47585.579589200061</v>
+        <v>47695.712659604505</v>
       </c>
       <c r="F11" s="4">
         <f>2/3*$F$2*EXP((1-$B11)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>89.753446749487225</v>
+        <v>101.62597256939199</v>
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
-        <v>48160.811611456455</v>
+        <v>48298.621753623091</v>
       </c>
       <c r="H11" s="4">
         <f>2/3*$H$2*EXP((1-$B11)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>58.143180712344595</v>
+        <v>65.834321713151283</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="1"/>
-        <v>47108.79400011088</v>
+        <v>47204.140147663675</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1181,27 +1180,27 @@
       </c>
       <c r="D12" s="4">
         <f>2/3*$D$2*EXP((1-B12)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>63.352911675656145</v>
+        <v>71.733192398854911</v>
       </c>
       <c r="E12" s="6">
         <f t="shared" si="0"/>
-        <v>47648.932500875715</v>
+        <v>47767.445852003359</v>
       </c>
       <c r="F12" s="4">
         <f>2/3*$F$2*EXP((1-$B12)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>85.601534218816624</v>
+        <v>96.924847830081021</v>
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
-        <v>48246.413145675273</v>
+        <v>48395.54660145317</v>
       </c>
       <c r="H12" s="4">
         <f>2/3*$H$2*EXP((1-$B12)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>56.978574593508903</v>
+        <v>64.51566227695956</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="1"/>
-        <v>47165.772574704388</v>
+        <v>47268.655809940632</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1217,27 +1216,27 @@
       </c>
       <c r="D13" s="4">
         <f>2/3*$D$2*EXP((1-B13)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>61.376726881693926</v>
+        <v>69.495599203979623</v>
       </c>
       <c r="E13" s="6">
         <f t="shared" si="0"/>
-        <v>47710.309227757411</v>
+        <v>47836.941451207342</v>
       </c>
       <c r="F13" s="4">
         <f>2/3*$F$2*EXP((1-$B13)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>81.937484270697666</v>
+        <v>92.776119808975267</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
-        <v>48328.35062994597</v>
+        <v>48488.322721262142</v>
       </c>
       <c r="H13" s="4">
         <f>2/3*$H$2*EXP((1-$B13)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>56.17815329401877</v>
+        <v>63.609361784088449</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="1"/>
-        <v>47221.95072799841</v>
+        <v>47332.265171724721</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1253,27 +1252,27 @@
       </c>
       <c r="D14" s="4">
         <f>2/3*$D$2*EXP((1-B14)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>59.837672616662353</v>
+        <v>67.752959871615502</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="0"/>
-        <v>47770.146900374071</v>
+        <v>47904.694411078955</v>
       </c>
       <c r="F14" s="4">
         <f>2/3*$F$2*EXP((1-$B14)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>78.703971540567423</v>
+        <v>89.114880180683528</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
-        <v>48407.054601486539</v>
+        <v>48577.437601442827</v>
       </c>
       <c r="H14" s="4">
         <f>2/3*$H$2*EXP((1-$B14)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>55.62803231636326</v>
+        <v>62.986471171975161</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>47277.578760314776</v>
+        <v>47395.251642896699</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1289,27 +1288,27 @@
       </c>
       <c r="D15" s="4">
         <f>2/3*$D$2*EXP((1-B15)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>58.639055949866375</v>
+        <v>66.395790994959299</v>
       </c>
       <c r="E15" s="6">
         <f t="shared" si="0"/>
-        <v>47828.78595632394</v>
+        <v>47971.090202073916</v>
       </c>
       <c r="F15" s="4">
         <f>2/3*$F$2*EXP((1-$B15)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>75.850406571759635</v>
+        <v>85.883847549096089</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
-        <v>48482.905008058297</v>
+        <v>48663.321448991926</v>
       </c>
       <c r="H15" s="4">
         <f>2/3*$H$2*EXP((1-$B15)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>55.249940066382621</v>
+        <v>62.558365132410152</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="1"/>
-        <v>47332.828700381157</v>
+        <v>47457.810008029111</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1325,27 +1324,27 @@
       </c>
       <c r="D16" s="4">
         <f>2/3*$D$2*EXP((1-B16)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>57.705572351163227</v>
+        <v>65.338826811059306</v>
       </c>
       <c r="E16" s="6">
         <f t="shared" si="0"/>
-        <v>47886.491528675106</v>
+        <v>48036.429028884973</v>
       </c>
       <c r="F16" s="4">
         <f>2/3*$F$2*EXP((1-$B16)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>73.332144325462849</v>
+        <v>83.032471259570428</v>
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
-        <v>48556.237152383757</v>
+        <v>48746.353920251495</v>
       </c>
       <c r="H16" s="4">
         <f>2/3*$H$2*EXP((1-$B16)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>54.990081316576976</v>
+        <v>62.264132441231453</v>
       </c>
       <c r="I16" s="6">
         <f t="shared" si="1"/>
-        <v>47387.818781697737</v>
+        <v>47520.074140470344</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1361,27 +1360,27 @@
       </c>
       <c r="D17" s="4">
         <f>2/3*$D$2*EXP((1-B17)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>56.978574593508903</v>
+        <v>64.51566227695956</v>
       </c>
       <c r="E17" s="6">
         <f t="shared" si="0"/>
-        <v>47943.470103268613</v>
+        <v>48100.944691161931</v>
       </c>
       <c r="F17" s="4">
         <f>2/3*$F$2*EXP((1-$B17)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>71.109785693210213</v>
+        <v>80.516140515960871</v>
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
-        <v>48627.346938076967</v>
+        <v>48826.870060767455</v>
       </c>
       <c r="H17" s="4">
         <f>2/3*$H$2*EXP((1-$B17)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>54.811483183835527</v>
+        <v>62.061909467114525</v>
       </c>
       <c r="I17" s="6">
         <f t="shared" si="1"/>
-        <v>47442.630264881569</v>
+        <v>47582.136049937457</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1397,27 +1396,27 @@
       </c>
       <c r="D18" s="4">
         <f>2/3*$D$2*EXP((1-B18)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>56.412388170556561</v>
+        <v>63.874581093206075</v>
       </c>
       <c r="E18" s="6">
         <f t="shared" si="0"/>
-        <v>47999.882491439173</v>
+        <v>48164.819272255139</v>
       </c>
       <c r="F18" s="4">
         <f>2/3*$F$2*EXP((1-$B18)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>69.14856108381511</v>
+        <v>78.295486428847042</v>
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
-        <v>48696.495499160781</v>
+        <v>48905.165547196302</v>
       </c>
       <c r="H18" s="4">
         <f>2/3*$H$2*EXP((1-$B18)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>54.688734601990241</v>
+        <v>61.92292378507873</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="1"/>
-        <v>47497.318999483556</v>
+        <v>47644.058973722538</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1433,27 +1432,27 @@
       </c>
       <c r="D19" s="4">
         <f>2/3*$D$2*EXP((1-B19)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>55.97144174099688</v>
+        <v>63.375306565286522</v>
       </c>
       <c r="E19" s="6">
         <f t="shared" si="0"/>
-        <v>48055.853933180173</v>
+        <v>48228.194578820425</v>
       </c>
       <c r="F19" s="4">
         <f>2/3*$F$2*EXP((1-$B19)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>67.417786440751271</v>
+        <v>76.335766075257268</v>
       </c>
       <c r="G19" s="6">
         <f t="shared" si="1"/>
-        <v>48763.913285601535</v>
+        <v>48981.501313271561</v>
       </c>
       <c r="H19" s="4">
         <f>2/3*$H$2*EXP((1-$B19)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>54.604370817701181</v>
+        <v>61.827400415910077</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="1"/>
-        <v>47551.923370301258</v>
+        <v>47705.886374138448</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1469,27 +1468,27 @@
       </c>
       <c r="D20" s="4">
         <f>2/3*$D$2*EXP((1-B20)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>55.62803231636326</v>
+        <v>62.986471171975161</v>
       </c>
       <c r="E20" s="6">
         <f t="shared" si="0"/>
-        <v>48111.481965496539</v>
+        <v>48291.181049992403</v>
       </c>
       <c r="F20" s="4">
         <f>2/3*$F$2*EXP((1-$B20)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>65.890383179175458</v>
+        <v>74.606318933282296</v>
       </c>
       <c r="G20" s="6">
         <f t="shared" si="1"/>
-        <v>48829.803668780711</v>
+        <v>49056.107632204847</v>
       </c>
       <c r="H20" s="4">
         <f>2/3*$H$2*EXP((1-$B20)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>54.546388493241075</v>
+        <v>61.761748228406475</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="1"/>
-        <v>47606.469758794497</v>
+        <v>47767.648122366852</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1499,33 +1498,32 @@
       <c r="B21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="4">
-        <f>VLOOKUP(A21,Injetores!$A$2:$H$15,6,FALSE)</f>
-        <v>3385.24328655</v>
+      <c r="C21">
+        <v>3516.6</v>
       </c>
       <c r="D21" s="4">
         <f>2/3*$D$2*EXP((1-B21)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>55.360584787544497</v>
+        <v>62.683645863178398</v>
       </c>
       <c r="E21" s="6">
         <f t="shared" si="0"/>
-        <v>48166.842550284084</v>
+        <v>48353.864695855584</v>
       </c>
       <c r="F21" s="4">
         <f>2/3*$F$2*EXP((1-$B21)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>64.542454531837194</v>
+        <v>73.080087187305608</v>
       </c>
       <c r="G21" s="6">
         <f t="shared" si="1"/>
-        <v>48894.346123312549</v>
+        <v>49129.187719392154</v>
       </c>
       <c r="H21" s="4">
         <f>2/3*$H$2*EXP((1-$B21)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>54.506537863280265</v>
+        <v>61.716626183806071</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="1"/>
-        <v>47660.976296657776</v>
+        <v>47829.364748550659</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1541,27 +1539,27 @@
       </c>
       <c r="D22" s="4">
         <f>2/3*$D$2*EXP((1-B22)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>55.152296442669936</v>
+        <v>62.447805275553634</v>
       </c>
       <c r="E22" s="6">
         <f t="shared" si="0"/>
-        <v>48221.994846726753</v>
+        <v>48416.312501131135</v>
       </c>
       <c r="F22" s="4">
         <f>2/3*$F$2*EXP((1-$B22)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>63.352911675656145</v>
+        <v>71.733192398854911</v>
       </c>
       <c r="G22" s="6">
         <f t="shared" si="1"/>
-        <v>48957.699034988203</v>
+        <v>49200.920911791007</v>
       </c>
       <c r="H22" s="4">
         <f>2/3*$H$2*EXP((1-$B22)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>54.479148952555136</v>
+        <v>61.685614286315086</v>
       </c>
       <c r="I22" s="6">
         <f t="shared" si="1"/>
-        <v>47715.455445610329</v>
+        <v>47891.050362836977</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1571,33 +1569,32 @@
       <c r="B23" s="1">
         <v>22</v>
       </c>
-      <c r="C23" s="4">
-        <f>VLOOKUP(A23,Injetores!$A$2:$H$15,6,FALSE)</f>
-        <v>3238.4490352500002</v>
+      <c r="C23">
+        <v>3353.2</v>
       </c>
       <c r="D23" s="4">
         <f>2/3*$D$2*EXP((1-B23)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>54.990081316576976</v>
+        <v>62.264132441231453</v>
       </c>
       <c r="E23" s="6">
         <f t="shared" si="0"/>
-        <v>48276.984928043334</v>
+        <v>48478.576633572367</v>
       </c>
       <c r="F23" s="4">
         <f>2/3*$F$2*EXP((1-$B23)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>62.30314378958473</v>
+        <v>70.544561919939824</v>
       </c>
       <c r="G23" s="6">
         <f t="shared" si="1"/>
-        <v>49020.002178777788</v>
+        <v>49271.465473710945</v>
       </c>
       <c r="H23" s="4">
         <f>2/3*$H$2*EXP((1-$B23)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>54.460324847855993</v>
+        <v>61.664300141654564</v>
       </c>
       <c r="I23" s="6">
         <f t="shared" si="1"/>
-        <v>47769.915770458181</v>
+        <v>47952.714662978629</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1613,27 +1610,27 @@
       </c>
       <c r="D24" s="4">
         <f>2/3*$D$2*EXP((1-B24)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>54.863748049349752</v>
+        <v>62.121087894032392</v>
       </c>
       <c r="E24" s="6">
         <f t="shared" si="0"/>
-        <v>48331.848676092683</v>
+        <v>48540.6977214664</v>
       </c>
       <c r="F24" s="4">
         <f>2/3*$F$2*EXP((1-$B24)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>61.376726881693926</v>
+        <v>69.495599203979623</v>
       </c>
       <c r="G24" s="6">
         <f t="shared" si="1"/>
-        <v>49081.378905659483</v>
+        <v>49340.961072914928</v>
       </c>
       <c r="H24" s="4">
         <f>2/3*$H$2*EXP((1-$B24)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>54.447387242513429</v>
+        <v>61.649651158542795</v>
       </c>
       <c r="I24" s="6">
         <f t="shared" si="1"/>
-        <v>47824.363157700696</v>
+        <v>48014.364314137172</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1649,27 +1646,27 @@
       </c>
       <c r="D25" s="4">
         <f>2/3*$D$2*EXP((1-B25)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>54.765359601905224</v>
+        <v>62.009684688659668</v>
       </c>
       <c r="E25" s="6">
         <f t="shared" si="0"/>
-        <v>48386.614035694591</v>
+        <v>48602.707406155059</v>
       </c>
       <c r="F25" s="4">
         <f>2/3*$F$2*EXP((1-$B25)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>60.559166829978295</v>
+        <v>68.569892856218019</v>
       </c>
       <c r="G25" s="6">
         <f t="shared" si="1"/>
-        <v>49141.938072489458</v>
+        <v>49409.530965771148</v>
       </c>
       <c r="H25" s="4">
         <f>2/3*$H$2*EXP((1-$B25)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>54.438495365068256</v>
+        <v>61.63958306950488</v>
       </c>
       <c r="I25" s="6">
         <f t="shared" si="1"/>
-        <v>47878.801653065762</v>
+        <v>48076.003897206676</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1685,27 +1682,27 @@
       </c>
       <c r="D26" s="4">
         <f>2/3*$D$2*EXP((1-B26)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>54.688734601990241</v>
+        <v>61.92292378507873</v>
       </c>
       <c r="E26" s="6">
         <f t="shared" si="0"/>
-        <v>48441.302770296577</v>
+        <v>48664.630329940141</v>
       </c>
       <c r="F26" s="4">
         <f>2/3*$F$2*EXP((1-$B26)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>59.837672616662353</v>
+        <v>67.752959871615502</v>
       </c>
       <c r="G26" s="6">
         <f t="shared" si="1"/>
-        <v>49201.775745106119</v>
+        <v>49477.283925642761</v>
       </c>
       <c r="H26" s="4">
         <f>2/3*$H$2*EXP((1-$B26)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>54.432384073031869</v>
+        <v>61.632663379851209</v>
       </c>
       <c r="I26" s="6">
         <f t="shared" si="1"/>
-        <v>47933.234037138791</v>
+        <v>48137.636560586529</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1721,27 +1718,27 @@
       </c>
       <c r="D27" s="4">
         <f>2/3*$D$2*EXP((1-B27)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>54.629058992053608</v>
+        <v>61.855354325429907</v>
       </c>
       <c r="E27" s="6">
         <f t="shared" si="0"/>
-        <v>48495.931829288631</v>
+        <v>48726.485684265572</v>
       </c>
       <c r="F27" s="4">
         <f>2/3*$F$2*EXP((1-$B27)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>59.200956208178319</v>
+        <v>67.032019043084603</v>
       </c>
       <c r="G27" s="6">
         <f t="shared" si="1"/>
-        <v>49260.976701314299</v>
+        <v>49544.315944685848</v>
       </c>
       <c r="H27" s="4">
         <f>2/3*$H$2*EXP((1-$B27)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>54.428183847535699</v>
+        <v>61.627907551339682</v>
       </c>
       <c r="I27" s="6">
         <f t="shared" si="1"/>
-        <v>47987.662220986327</v>
+        <v>48199.264468137866</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1757,27 +1754,27 @@
       </c>
       <c r="D28" s="4">
         <f>2/3*$D$2*EXP((1-B28)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>54.5825835803047</v>
+        <v>61.802731177343695</v>
       </c>
       <c r="E28" s="6">
         <f t="shared" si="0"/>
-        <v>48550.514412868935</v>
+        <v>48788.288415442912</v>
       </c>
       <c r="F28" s="4">
         <f>2/3*$F$2*EXP((1-$B28)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>58.639055949866375</v>
+        <v>66.395790994959299</v>
       </c>
       <c r="G28" s="6">
         <f t="shared" si="1"/>
-        <v>49319.615757264168</v>
+        <v>49610.711735680808</v>
       </c>
       <c r="H28" s="4">
         <f>2/3*$H$2*EXP((1-$B28)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>54.425297077583672</v>
+        <v>61.624638921391941</v>
       </c>
       <c r="I28" s="6">
         <f t="shared" si="1"/>
-        <v>48042.087518063912</v>
+        <v>48260.889107059258</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1793,27 +1790,27 @@
       </c>
       <c r="D29" s="4">
         <f>2/3*$D$2*EXP((1-B29)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>54.546388493241075</v>
+        <v>61.761748228406475</v>
       </c>
       <c r="E29" s="6">
         <f t="shared" si="0"/>
-        <v>48605.060801362175</v>
+        <v>48850.050163671316</v>
       </c>
       <c r="F29" s="4">
         <f>2/3*$F$2*EXP((1-$B29)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>58.143180712344595</v>
+        <v>65.834321713151283</v>
       </c>
       <c r="G29" s="6">
         <f t="shared" si="1"/>
-        <v>49377.758937976512</v>
+        <v>49676.546057393956</v>
       </c>
       <c r="H29" s="4">
         <f>2/3*$H$2*EXP((1-$B29)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>54.423313031545312</v>
+        <v>61.622392427072519</v>
       </c>
       <c r="I29" s="6">
         <f t="shared" si="1"/>
-        <v>48096.51083109546</v>
+        <v>48322.511499486332</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1829,27 +1826,27 @@
       </c>
       <c r="D30" s="4">
         <f>2/3*$D$2*EXP((1-B30)*'Tempo de Construção do Poço'!$E$27) + 1/3*$D$2</f>
-        <v>54.518199731092594</v>
+        <v>61.72983067568159</v>
       </c>
       <c r="E30" s="6">
         <f t="shared" si="0"/>
-        <v>48659.579001093269</v>
+        <v>48911.779994346994</v>
       </c>
       <c r="F30" s="4">
         <f>2/3*$F$2*EXP((1-$B30)*'Tempo de Construção do Poço'!$E$28) + 1/3*$F$2</f>
-        <v>57.705572351163227</v>
+        <v>65.338826811059306</v>
       </c>
       <c r="G30" s="6">
         <f t="shared" si="1"/>
-        <v>49435.464510327678</v>
+        <v>49741.884884205014</v>
       </c>
       <c r="H30" s="4">
         <f>2/3*$H$2*EXP((1-$B30)*'Tempo de Construção do Poço'!$E$29) + 1/3*$H$2</f>
-        <v>54.421949417974517</v>
+        <v>61.620848435611919</v>
       </c>
       <c r="I30" s="6">
         <f t="shared" si="1"/>
-        <v>48150.932780513438</v>
+        <v>48384.132347921943</v>
       </c>
     </row>
   </sheetData>
@@ -1863,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{484B91E4-E1C1-4ACE-9612-3714C6209131}">
   <dimension ref="D2:N74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C20" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1911,7 +1908,7 @@
       </c>
       <c r="I4" s="4">
         <f>J4*$I$7</f>
-        <v>361.06293685156243</v>
+        <v>381.078125</v>
       </c>
       <c r="J4" s="13">
         <v>0.15625</v>
@@ -1936,7 +1933,7 @@
       </c>
       <c r="I5" s="4">
         <f>J5*$I$7</f>
-        <v>866.55104844374989</v>
+        <v>914.58750000000009</v>
       </c>
       <c r="J5" s="13">
         <v>0.375</v>
@@ -1961,7 +1958,7 @@
       </c>
       <c r="I6" s="4">
         <f>J6*$I$7</f>
-        <v>1516.4643347765623</v>
+        <v>1600.528125</v>
       </c>
       <c r="J6" s="13">
         <v>0.65625</v>
@@ -1985,8 +1982,8 @@
         <v>50</v>
       </c>
       <c r="I7" s="4">
-        <f>Cronograma!C2-I3</f>
-        <v>2310.8027958499997</v>
+        <f>Cronograma_Perfuração!C2-I3</f>
+        <v>2438.9</v>
       </c>
       <c r="J7" s="8"/>
       <c r="K7" t="s">
@@ -2025,7 +2022,7 @@
       </c>
       <c r="L10" s="4">
         <f>(1/3.6/0.000889) * (EXP(0.000889*I7)-1)</f>
-        <v>2125.1730253898713</v>
+        <v>2419.190357278083</v>
       </c>
     </row>
     <row r="11" spans="8:14" x14ac:dyDescent="0.35">
@@ -2034,14 +2031,14 @@
       </c>
       <c r="I11" s="10">
         <f>I10*ROUNDUP(L34,0)</f>
-        <v>29520000</v>
+        <v>33300000</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>56</v>
       </c>
       <c r="L11" s="9">
         <f>L10/24</f>
-        <v>88.548876057911301</v>
+        <v>100.79959821992013</v>
       </c>
     </row>
     <row r="13" spans="8:14" x14ac:dyDescent="0.35">
@@ -2050,7 +2047,7 @@
       </c>
       <c r="I13" s="11">
         <f>(N8+I10*(L11+L16+L25))/I7</f>
-        <v>7457.2066110554215</v>
+        <v>7976.2950958518677</v>
       </c>
       <c r="K13" t="s">
         <v>58</v>
@@ -2094,7 +2091,7 @@
       </c>
       <c r="L19" s="4">
         <f>0.003*(I$3+I4/2) + 0.003*(I$3+I4)</f>
-        <v>7.6247832158320303</v>
+        <v>7.7148515625000007</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.35">
@@ -2103,7 +2100,7 @@
       </c>
       <c r="L20" s="4">
         <f>0.003*(I$3+I5/2) + 0.003*(I$3+I5)</f>
-        <v>9.8994797179968756</v>
+        <v>10.11564375</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.35">
@@ -2112,7 +2109,7 @@
       </c>
       <c r="L21" s="4">
         <f>0.003*(I$3+I6/6) + 0.003*(I$3+2*I6/6)+ 0.003*(I$3+3*I6/6) + 0.003*(I$3+4*I6/6) + 0.003*(I$3+5*I6/6) + 0.003*(I$3+I6)</f>
-        <v>33.922875515153905</v>
+        <v>34.805545312500001</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.35">
@@ -2121,7 +2118,7 @@
       </c>
       <c r="L22" s="4">
         <f>0.003*(I$3+I7/6) + 0.003*(I$3+2*I7/6)+ 0.003*(I$3+3*I7/6) + 0.003*(I$3+4*I7/6) + 0.003*(I$3+5*I7/6)</f>
-        <v>32.331020968874995</v>
+        <v>33.29175</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.35">
@@ -2133,13 +2130,13 @@
       </c>
       <c r="L24" s="4">
         <f>SUM(L19:L22)</f>
-        <v>83.778159417857808</v>
+        <v>85.927790625</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.35">
       <c r="L25" s="9">
         <f>L24/24</f>
-        <v>3.4907566424107421</v>
+        <v>3.5803246093749999</v>
       </c>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.35">
@@ -2159,7 +2156,7 @@
       </c>
       <c r="L27" s="4">
         <f>L24+L15+L10</f>
-        <v>2238.9511848077291</v>
+        <v>2535.1181479030829</v>
       </c>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.35">
@@ -2174,7 +2171,7 @@
       </c>
       <c r="L28" s="9">
         <f>L27/24</f>
-        <v>93.289632700322045</v>
+        <v>105.62992282929513</v>
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.35">
@@ -2192,13 +2189,13 @@
       </c>
       <c r="L30" s="4">
         <f>0.75*L27</f>
-        <v>1679.2133886057968</v>
+        <v>1901.3386109273122</v>
       </c>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.35">
       <c r="L31" s="9">
         <f>0.75*L28</f>
-        <v>69.967224525241534</v>
+        <v>79.222442121971341</v>
       </c>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.35">
@@ -2213,7 +2210,7 @@
       </c>
       <c r="L33" s="4">
         <f>L30+L27</f>
-        <v>3918.1645734135259</v>
+        <v>4436.4567588303953</v>
       </c>
     </row>
     <row r="34" spans="11:12" x14ac:dyDescent="0.35">
@@ -2222,7 +2219,7 @@
       </c>
       <c r="L34" s="9">
         <f>L31+L28</f>
-        <v>163.25685722556358</v>
+        <v>184.85236495126645</v>
       </c>
     </row>
     <row r="35" spans="11:12" x14ac:dyDescent="0.35">
@@ -2247,7 +2244,7 @@
       </c>
       <c r="E61">
         <f>3.6*EXP(-0.000889*I4)</f>
-        <v>2.6115630050433492</v>
+        <v>2.5655051334094763</v>
       </c>
     </row>
     <row r="62" spans="4:6" x14ac:dyDescent="0.35">
@@ -2256,11 +2253,11 @@
       </c>
       <c r="E62">
         <f>(1/3.6/0.000889) * (EXP(0.000889*I4)-1)</f>
-        <v>118.26172844888372</v>
+        <v>125.99438476852738</v>
       </c>
       <c r="F62">
         <f>I4/E61</f>
-        <v>138.25549533145158</v>
+        <v>148.53921749653998</v>
       </c>
     </row>
     <row r="64" spans="4:6" x14ac:dyDescent="0.35">
@@ -2274,7 +2271,7 @@
       </c>
       <c r="E65">
         <f>3.6*EXP(-0.000889*(I5-I4))</f>
-        <v>2.2968874280511096</v>
+        <v>2.2403766769603872</v>
       </c>
     </row>
     <row r="66" spans="4:6" x14ac:dyDescent="0.35">
@@ -2283,11 +2280,11 @@
       </c>
       <c r="E66">
         <f>(1/3.6/0.000889) * (EXP(0.000889*(I5-I4))-1)</f>
-        <v>177.27110927971231</v>
+        <v>189.62399902241549</v>
       </c>
       <c r="F66">
         <f>(I5-I4)/E65</f>
-        <v>220.07526595288567</v>
+        <v>238.13378370097772</v>
       </c>
     </row>
     <row r="68" spans="4:6" x14ac:dyDescent="0.35">
@@ -2301,7 +2298,7 @@
       </c>
       <c r="E69">
         <f>3.6*EXP(-0.000889*(I6-I5))</f>
-        <v>2.0201281175108665</v>
+        <v>1.956452002104393</v>
       </c>
     </row>
     <row r="70" spans="4:6" x14ac:dyDescent="0.35">
@@ -2310,11 +2307,11 @@
       </c>
       <c r="E70">
         <f>(1/3.6/0.000889) * (EXP(0.000889*(I6-I5))-1)</f>
-        <v>244.36482664968557</v>
+        <v>262.48768470704408</v>
       </c>
       <c r="F70">
         <f>(I6-I5)/E69</f>
-        <v>321.71884579954934</v>
+        <v>350.6043717209472</v>
       </c>
     </row>
     <row r="72" spans="4:6" x14ac:dyDescent="0.35">
@@ -2328,7 +2325,7 @@
       </c>
       <c r="E73">
         <f>3.6*EXP(-0.000889*(I7-I6))</f>
-        <v>1.776716421239948</v>
+        <v>1.7085093216251004</v>
       </c>
     </row>
     <row r="74" spans="4:6" x14ac:dyDescent="0.35">
@@ -2337,11 +2334,11 @@
       </c>
       <c r="E74">
         <f>(1/3.6/0.000889) * (EXP(0.000889*(I7-I6))-1)</f>
-        <v>320.65044170176031</v>
+        <v>345.9255108482572</v>
       </c>
       <c r="F74">
         <f>(I7-I6)/E73</f>
-        <v>447.08229832146122</v>
+        <v>490.70371720451442</v>
       </c>
     </row>
   </sheetData>
